--- a/HCHNAexcelFiles/MEMBER.xlsx
+++ b/HCHNAexcelFiles/MEMBER.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="149">
   <si>
-    <t>MemID</t>
-  </si>
-  <si>
     <t>AddrCode</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>isOfficer</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
@@ -471,6 +465,12 @@
   </si>
   <si>
     <t>WGD133</t>
+  </si>
+  <si>
+    <t>Is_Officer</t>
+  </si>
+  <si>
+    <t>MemberID</t>
   </si>
 </sst>
 </file>
@@ -831,17 +831,18 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" style="1" bestFit="1" customWidth="1"/>
@@ -855,37 +856,37 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -893,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L2" s="1">
         <v>1998</v>
@@ -912,13 +913,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="L3" s="1">
         <v>1998</v>
@@ -931,13 +932,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L4" s="1">
         <v>1998</v>
@@ -950,13 +951,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="1">
         <v>1998</v>
@@ -969,16 +970,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L6" s="1">
         <v>1998</v>
@@ -991,13 +992,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L7" s="1">
         <v>1998</v>
@@ -1010,13 +1011,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L8" s="1">
         <v>1998</v>
@@ -1029,13 +1030,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L9" s="1">
         <v>1998</v>
@@ -1048,13 +1049,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" s="1">
         <v>1998</v>
@@ -1067,16 +1068,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L11" s="1">
         <v>1998</v>
@@ -1089,16 +1090,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L12" s="1">
         <v>1998</v>
@@ -1111,13 +1112,13 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L13" s="1">
         <v>1998</v>
@@ -1130,13 +1131,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L14" s="1">
         <v>1998</v>
@@ -1149,13 +1150,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L15" s="1">
         <v>1998</v>
@@ -1168,13 +1169,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L16" s="1">
         <v>1998</v>
@@ -1187,13 +1188,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L17" s="1">
         <v>1998</v>
@@ -1206,13 +1207,13 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="L18" s="1">
         <v>1998</v>
@@ -1225,13 +1226,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L19" s="1">
         <v>1998</v>
@@ -1244,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L20" s="1">
         <v>1998</v>
@@ -1263,13 +1264,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L21" s="1">
         <v>1998</v>
@@ -1282,13 +1283,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L22" s="1">
         <v>1998</v>
@@ -1301,22 +1302,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L23" s="1">
         <v>1998</v>
@@ -1329,19 +1330,19 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L24" s="1">
         <v>1998</v>
@@ -1354,13 +1355,13 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L25" s="1">
         <v>1998</v>
@@ -1373,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L26" s="1">
         <v>1998</v>
@@ -1392,13 +1393,13 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L27" s="1">
         <v>1998</v>
@@ -1411,13 +1412,13 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L28" s="1">
         <v>1998</v>
@@ -1430,13 +1431,13 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L29" s="1">
         <v>1998</v>
@@ -1449,13 +1450,13 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="L30" s="1">
         <v>1998</v>
@@ -1468,13 +1469,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L31" s="1">
         <v>1998</v>
@@ -1487,13 +1488,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L32" s="1">
         <v>1998</v>
@@ -1506,13 +1507,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="L33" s="1">
         <v>1998</v>
@@ -1525,13 +1526,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L34" s="1">
         <v>1998</v>
@@ -1544,13 +1545,13 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L35" s="1">
         <v>1998</v>
@@ -1563,13 +1564,13 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="L36" s="1">
         <v>1998</v>
@@ -1582,16 +1583,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="L37" s="1">
         <v>1998</v>
@@ -1604,16 +1605,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L38" s="1">
         <v>1998</v>
@@ -1626,13 +1627,13 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="L39" s="1">
         <v>1998</v>
@@ -1645,13 +1646,13 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="L40" s="1">
         <v>1998</v>
@@ -1664,16 +1665,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L41" s="1">
         <v>1998</v>
@@ -1686,13 +1687,13 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L42" s="1">
         <v>1998</v>
@@ -1705,13 +1706,13 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L43" s="1">
         <v>1998</v>
@@ -1724,13 +1725,13 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L44" s="1">
         <v>1998</v>
@@ -1743,16 +1744,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L45" s="1">
         <v>1998</v>
@@ -1765,31 +1766,31 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="K46" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="L46" s="1">
         <v>2014</v>
@@ -1801,31 +1802,31 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="L47" s="1">
         <v>2014</v>
@@ -1838,16 +1839,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="L48" s="1">
         <v>2000</v>
@@ -1860,16 +1861,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L49" s="1">
         <v>2000</v>
@@ -1880,13 +1881,13 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="L50" s="1">
         <v>2000</v>
@@ -1897,13 +1898,13 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L51" s="1">
         <v>2000</v>
@@ -1914,13 +1915,13 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L52" s="1">
         <v>2000</v>
@@ -1931,13 +1932,13 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L53" s="1">
         <v>2000</v>
@@ -1948,16 +1949,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L54" s="1">
         <v>2000</v>

--- a/HCHNAexcelFiles/MEMBER.xlsx
+++ b/HCHNAexcelFiles/MEMBER.xlsx
@@ -528,22 +528,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -826,12 +816,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -847,13 +837,10 @@
     <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" style="6" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" style="6" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -888,7 +875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -904,10 +891,8 @@
       <c r="K2" s="1">
         <v>1998</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -923,10 +908,8 @@
       <c r="K3" s="1">
         <v>1998</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -942,10 +925,8 @@
       <c r="K4" s="1">
         <v>1998</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -961,10 +942,8 @@
       <c r="K5" s="1">
         <v>1998</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -983,10 +962,8 @@
       <c r="K6" s="1">
         <v>1998</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1002,10 +979,8 @@
       <c r="K7" s="1">
         <v>1998</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1021,10 +996,8 @@
       <c r="K8" s="1">
         <v>1998</v>
       </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1040,10 +1013,8 @@
       <c r="K9" s="1">
         <v>1998</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1059,10 +1030,8 @@
       <c r="K10" s="1">
         <v>1998</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1081,10 +1050,8 @@
       <c r="K11" s="1">
         <v>1998</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1103,10 +1070,8 @@
       <c r="K12" s="1">
         <v>1998</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1122,10 +1087,8 @@
       <c r="K13" s="1">
         <v>1998</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1141,10 +1104,8 @@
       <c r="K14" s="1">
         <v>1998</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1160,10 +1121,8 @@
       <c r="K15" s="1">
         <v>1998</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1179,10 +1138,8 @@
       <c r="K16" s="1">
         <v>1998</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1198,10 +1155,8 @@
       <c r="K17" s="1">
         <v>1998</v>
       </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1217,10 +1172,8 @@
       <c r="K18" s="1">
         <v>1998</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1236,10 +1189,8 @@
       <c r="K19" s="1">
         <v>1998</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1255,10 +1206,8 @@
       <c r="K20" s="1">
         <v>1998</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1274,10 +1223,8 @@
       <c r="K21" s="1">
         <v>1998</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1293,10 +1240,8 @@
       <c r="K22" s="1">
         <v>1998</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1321,10 +1266,8 @@
       <c r="K23" s="1">
         <v>1998</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1346,10 +1289,8 @@
       <c r="K24" s="1">
         <v>1998</v>
       </c>
-      <c r="M24" s="4"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1365,10 +1306,8 @@
       <c r="K25" s="1">
         <v>1998</v>
       </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1384,10 +1323,8 @@
       <c r="K26" s="1">
         <v>1998</v>
       </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1403,10 +1340,8 @@
       <c r="K27" s="1">
         <v>1998</v>
       </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1422,10 +1357,8 @@
       <c r="K28" s="1">
         <v>1998</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1441,10 +1374,8 @@
       <c r="K29" s="1">
         <v>1998</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1460,10 +1391,8 @@
       <c r="K30" s="1">
         <v>1998</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1479,10 +1408,8 @@
       <c r="K31" s="1">
         <v>1998</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1498,10 +1425,8 @@
       <c r="K32" s="1">
         <v>1998</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1517,10 +1442,8 @@
       <c r="K33" s="1">
         <v>1998</v>
       </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1536,10 +1459,8 @@
       <c r="K34" s="1">
         <v>1998</v>
       </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1555,10 +1476,8 @@
       <c r="K35" s="1">
         <v>1998</v>
       </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1574,10 +1493,8 @@
       <c r="K36" s="1">
         <v>1998</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1596,10 +1513,8 @@
       <c r="K37" s="1">
         <v>1998</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1618,10 +1533,8 @@
       <c r="K38" s="1">
         <v>1998</v>
       </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1637,10 +1550,8 @@
       <c r="K39" s="1">
         <v>1998</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1656,10 +1567,8 @@
       <c r="K40" s="1">
         <v>1998</v>
       </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1678,10 +1587,8 @@
       <c r="K41" s="1">
         <v>1998</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1697,10 +1604,8 @@
       <c r="K42" s="1">
         <v>1998</v>
       </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1716,10 +1621,8 @@
       <c r="K43" s="1">
         <v>1998</v>
       </c>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1735,10 +1638,8 @@
       <c r="K44" s="1">
         <v>1998</v>
       </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1757,10 +1658,8 @@
       <c r="K45" s="1">
         <v>1998</v>
       </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1782,7 +1681,7 @@
       <c r="G46" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="3" t="s">
         <v>135</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -1794,9 +1693,8 @@
       <c r="K46" s="1">
         <v>2014</v>
       </c>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1818,7 +1716,7 @@
       <c r="G47" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -1830,10 +1728,8 @@
       <c r="K47" s="1">
         <v>2014</v>
       </c>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1852,8 +1748,6 @@
       <c r="K48" s="1">
         <v>2000</v>
       </c>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">

--- a/HCHNAexcelFiles/MEMBER.xlsx
+++ b/HCHNAexcelFiles/MEMBER.xlsx
@@ -819,9 +819,9 @@
   <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -876,9 +876,6 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="1" t="s">
         <v>144</v>
       </c>
@@ -893,9 +890,6 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
       <c r="B3" s="1" t="s">
         <v>144</v>
       </c>
@@ -910,9 +904,6 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -927,9 +918,6 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
@@ -944,9 +932,6 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
       <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
@@ -964,9 +949,6 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -981,9 +963,6 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -998,9 +977,6 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1015,9 +991,6 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
@@ -1032,9 +1005,6 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
       <c r="B11" s="1" t="s">
         <v>142</v>
       </c>
@@ -1052,9 +1022,6 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
       <c r="B12" s="1" t="s">
         <v>142</v>
       </c>
@@ -1072,9 +1039,6 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1089,9 +1053,6 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1106,9 +1067,6 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1123,9 +1081,6 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
       <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1139,10 +1094,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,10 +1108,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1173,10 +1122,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1190,10 +1136,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1207,10 +1150,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>31</v>
       </c>
@@ -1224,10 +1164,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1241,10 +1178,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1267,10 +1201,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1290,10 +1221,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>145</v>
       </c>
@@ -1307,10 +1235,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>30</v>
       </c>
@@ -1324,10 +1249,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,10 +1263,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1358,10 +1277,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>146</v>
       </c>
@@ -1375,10 +1291,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>146</v>
       </c>
@@ -1392,10 +1305,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>143</v>
       </c>
@@ -1409,10 +1319,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,10 +1333,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,10 +1347,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1460,10 +1361,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1477,10 +1375,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>22</v>
       </c>
@@ -1494,10 +1389,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1514,10 +1406,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
@@ -1534,10 +1423,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1551,10 +1437,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
@@ -1568,10 +1451,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>16</v>
       </c>
@@ -1588,10 +1468,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -1605,10 +1482,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>12</v>
       </c>
@@ -1622,10 +1496,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>23</v>
       </c>
@@ -1639,10 +1510,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
@@ -1659,10 +1527,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1694,10 +1559,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1729,10 +1591,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>8</v>
       </c>
@@ -1749,10 +1608,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>43</v>
       </c>
@@ -1769,10 +1625,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>16</v>
       </c>
@@ -1786,10 +1639,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>13</v>
       </c>
@@ -1803,10 +1653,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>10</v>
       </c>
@@ -1820,10 +1667,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>9</v>
       </c>
@@ -1837,10 +1681,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>9</v>
       </c>
